--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Day/Type</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Some cells or styles in this workbook contain formatting that is not supported by the selected file format. These formats will be converted to the closest format available.</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,7 +205,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,38 +247,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,21 +574,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>40943</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>41309</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>40944</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+        <v>41310</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>41311</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>41312</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -628,78 +661,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5" ht="45">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" ht="45.75" thickBot="1">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Day/Type</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Quicksort</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,11 +199,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +258,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,12 +274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,18 +570,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,46 +594,69 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>41309</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>41310</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>41311</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>41312</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>41313</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Day/Type</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Mergesort</t>
+  </si>
+  <si>
+    <t>1.5H</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +585,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,9 +658,18 @@
       <c r="A5" s="2">
         <v>41312</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Day/Type</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Some cells or styles in this workbook contain formatting that is not supported by the selected file format. These formats will be converted to the closest format available.</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -74,6 +71,30 @@
   </si>
   <si>
     <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>0H</t>
+  </si>
+  <si>
+    <t>0.5H</t>
+  </si>
+  <si>
+    <t>isPrime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>3H</t>
   </si>
 </sst>
 </file>
@@ -111,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -139,30 +160,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -212,11 +209,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -246,10 +252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,10 +267,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -273,20 +279,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,35 +610,36 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>41309</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>41310</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -642,16 +647,16 @@
         <v>41311</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -659,29 +664,83 @@
         <v>41312</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>41313</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>41314</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>41315</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>41316</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Day/Type</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Some cells or styles in this workbook contain formatting that is not supported by the selected file format. These formats will be converted to the closest format available.</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Algo</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>3H</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -630,16 +630,16 @@
         <v>41310</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -647,16 +647,16 @@
         <v>41311</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -664,16 +664,16 @@
         <v>41312</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -681,16 +681,16 @@
         <v>41313</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -698,16 +698,16 @@
         <v>41314</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -715,27 +715,33 @@
         <v>41315</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>41316</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Day/Type</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2.5H</t>
   </si>
 </sst>
 </file>
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,7 +741,7 @@
         <v>41316</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -741,6 +750,51 @@
         <v>18</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>41317</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>41318</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>41319</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Day/Type</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>2.5H</t>
+  </si>
+  <si>
+    <t>BubbleSort</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,10 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,7 +597,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,12 +626,12 @@
       <c r="A2" s="2">
         <v>41309</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -647,7 +646,7 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -664,7 +663,7 @@
       <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -681,7 +680,7 @@
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -698,7 +697,7 @@
       <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -715,7 +714,7 @@
       <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -792,10 +791,12 @@
         <v>41319</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Day/Type</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>BubbleSort</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,11 +793,15 @@
       <c r="A12" s="2">
         <v>41319</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>29</v>
       </c>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Day/Type</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>0.75H</t>
+  </si>
+  <si>
+    <t>Reverse words</t>
   </si>
 </sst>
 </file>
@@ -597,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,6 +810,23 @@
       </c>
       <c r="E12" s="16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>41320</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,7 +823,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>32</v>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Day/Type</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Reverse words</t>
+  </si>
+  <si>
+    <t>Next Palindrome</t>
   </si>
 </sst>
 </file>
@@ -603,15 +606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -827,6 +831,23 @@
       </c>
       <c r="E13" s="16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>41321</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Day/Type</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Next Palindrome</t>
+  </si>
+  <si>
+    <t>Greatest Common Divisor</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,10 +847,27 @@
         <v>17</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>41322</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Day/Type</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Greatest Common Divisor</t>
+  </si>
+  <si>
+    <t>ShellSort</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,6 +871,23 @@
       </c>
       <c r="E15" s="16" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>41323</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Day/Type</t>
   </si>
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -888,6 +888,23 @@
       </c>
       <c r="E16" s="16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>41324</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Day/Type</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>ShellSort</t>
+  </si>
+  <si>
+    <t>Odd-Even Sort</t>
   </si>
 </sst>
 </file>
@@ -612,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,6 +908,23 @@
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>41325</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Day/Type</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Odd-Even Sort</t>
+  </si>
+  <si>
+    <t>Decimal to Fraction</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,6 +928,23 @@
       </c>
       <c r="E18" s="16" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>41326</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Day/Type</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Decimal to Fraction</t>
+  </si>
+  <si>
+    <t>Cocktail Shake Sort</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,6 +948,23 @@
       </c>
       <c r="E19" s="16" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>41326</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Day/Type</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Cocktail Shake Sort</t>
+  </si>
+  <si>
+    <t>Away</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -264,11 +267,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,6 +353,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,7 +988,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41326</v>
+        <v>41327</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>18</v>
@@ -967,9 +1003,38 @@
         <v>38</v>
       </c>
     </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>41328</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>41329</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Day/Type</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Away</t>
+  </si>
+  <si>
+    <t>isAnagram</t>
   </si>
 </sst>
 </file>
@@ -657,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,6 +1033,74 @@
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>41330</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>41331</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>41332</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Day/Type</t>
   </si>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,10 +1102,56 @@
         <v>22</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>41335</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>41336</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Day/Type</t>
   </si>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,6 +1144,23 @@
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>41337</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
   <si>
     <t>Day/Type</t>
   </si>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,6 +1161,40 @@
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>41338</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>41339</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>Day/Type</t>
   </si>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,6 +1195,57 @@
         <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>41340</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>41341</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>41342</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Day/Type</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>isAnagram</t>
+  </si>
+  <si>
+    <t>Away (Birthday :D)</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,11 +1252,69 @@
         <v>22</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>41343</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>41344</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>41345</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>41346</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="42">
   <si>
     <t>Day/Type</t>
   </si>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1308,8 +1308,105 @@
         <v>22</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>41347</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>41348</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>41349</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>41350</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>41351</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>41352</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B28:E28"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="42">
   <si>
     <t>Day/Type</t>
   </si>
@@ -354,20 +354,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,12 +696,12 @@
       <c r="A2" s="2">
         <v>41309</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -1030,12 +1030,12 @@
       <c r="A22" s="2">
         <v>41329</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
@@ -1126,12 +1126,12 @@
       <c r="A28" s="2">
         <v>41335</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
@@ -1256,23 +1256,23 @@
       <c r="A36" s="2">
         <v>41343</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>41344</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
@@ -1346,12 +1346,12 @@
       <c r="A42" s="2">
         <v>41349</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
@@ -1401,6 +1401,23 @@
         <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>41353</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>Day/Type</t>
   </si>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,6 +1418,91 @@
         <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>41354</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>41355</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>41356</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>41357</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>41358</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="42">
   <si>
     <t>Day/Type</t>
   </si>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1506,8 +1506,225 @@
         <v>22</v>
       </c>
     </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>41359</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>41360</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>41361</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>41362</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>41363</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>41366</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>41367</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>41368</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>41369</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>41370</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>41371</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>41372</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B22:E22"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -666,7 +666,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>22</v>
@@ -1483,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>22</v>
@@ -1500,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>22</v>
@@ -1517,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>22</v>
@@ -1528,13 +1528,13 @@
         <v>41360</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>22</v>
@@ -1544,14 +1544,14 @@
       <c r="A54" s="2">
         <v>41361</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>19</v>
+      <c r="B54" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>22</v>
@@ -1561,14 +1561,14 @@
       <c r="A55" s="2">
         <v>41362</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>17</v>
+      <c r="B55" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>22</v>
@@ -1612,13 +1612,13 @@
         <v>41366</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>22</v>
@@ -1629,13 +1629,13 @@
         <v>41367</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>22</v>
@@ -1646,13 +1646,13 @@
         <v>41368</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>22</v>
@@ -1663,13 +1663,13 @@
         <v>41369</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>22</v>
@@ -1680,13 +1680,13 @@
         <v>41370</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>22</v>
@@ -1697,13 +1697,13 @@
         <v>41371</v>
       </c>
       <c r="B64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>22</v>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>Day/Type</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Away (Birthday :D)</t>
+  </si>
+  <si>
+    <t>Tower of Hanoi</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1713,10 +1719,118 @@
       <c r="A65" s="2">
         <v>41372</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E65" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>41373</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>41374</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>41375</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>41376</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>41377</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>41378</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="45">
   <si>
     <t>Day/Type</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>BRISBANE TRIP TO THE STUDIOS</t>
   </si>
 </sst>
 </file>
@@ -669,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,8 +1837,71 @@
         <v>22</v>
       </c>
     </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>41379</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>41380</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>41381</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>41382</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="B58:E58"/>
